--- a/biology/Zoologie/Caeruleuptychia_cyanites/Caeruleuptychia_cyanites.xlsx
+++ b/biology/Zoologie/Caeruleuptychia_cyanites/Caeruleuptychia_cyanites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caeruleuptychia cyanites est une espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Caeruleuptychia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caeruleuptychia cyanites a été décrit par l'entomologiste Arthur Gardiner Butler en 1871, sous le nom initial d' Euptychia cyanites[1].
-Nom vernaculaire
-Caeruleuptychia cyanites se nomme Cyanites Satyr en anglais[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caeruleuptychia cyanites a été décrit par l'entomologiste Arthur Gardiner Butler en 1871, sous le nom initial d' Euptychia cyanites.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caeruleuptychia cyanites est un papillon au dessus bleu largement bordé de marron.
-Le revers bleu à rayures cuivrées discale, postdiscale et ligne submarginale festonnée, avec un discret ocelle à l'apex des ailes antérieures et aux ailes postérieures une ligne d'ocelles dont les un proche de l'apex et celui proche de l'angle anal sont noir et pupillés, les autres étant juste marqués par un cercle cuivré.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caeruleuptychia cyanites se nomme Cyanites Satyr en anglais. 
 </t>
         </is>
       </c>
@@ -573,10 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caeruleuptychia cyanites est un papillon au dessus bleu largement bordé de marron.
+Le revers bleu à rayures cuivrées discale, postdiscale et ligne submarginale festonnée, avec un discret ocelle à l'apex des ailes antérieures et aux ailes postérieures une ligne d'ocelles dont les un proche de l'apex et celui proche de l'angle anal sont noir et pupillés, les autres étant juste marqués par un cercle cuivré.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,15 +624,79 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caeruleuptychia_cyanites</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caeruleuptychia_cyanites</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caeruleuptychia cyanites est présent au Brésil et en Argentine[1].
-Biotope
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caeruleuptychia cyanites est présent au Brésil et en Argentine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caeruleuptychia_cyanites</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caeruleuptychia_cyanites</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
